--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/123/correct_predictions_123.xlsx
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate Fly with caution .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,11 +557,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/123/correct_predictions_123.xlsx
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Visual positioning inaccurate Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,11 +557,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -767,21 +767,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
